--- a/crossChecked_Delivery_Latest_Structural_BOM_Rover.xlsx
+++ b/crossChecked_Delivery_Latest_Structural_BOM_Rover.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulde\OneDrive\Desktop\Romeo_007\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7033CBB-1C8A-4573-B119-90FD1544239F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C4E762-1DA7-4205-85CC-AD4A8835FEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B20D429-B29D-4754-92B2-C46CE5D0CC7C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8B20D429-B29D-4754-92B2-C46CE5D0CC7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>Component</t>
   </si>
@@ -180,12 +180,6 @@
   </si>
   <si>
     <t>Arrived</t>
-  </si>
-  <si>
-    <t>wrong Part + Bolts???</t>
-  </si>
-  <si>
-    <t>NOT arrived</t>
   </si>
 </sst>
 </file>
@@ -282,7 +276,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,13 +304,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
@@ -659,16 +649,16 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.77734375" customWidth="1"/>
-    <col min="2" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="6" width="15.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.81640625" customWidth="1"/>
+    <col min="2" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="6" width="15.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6328125" customWidth="1"/>
+    <col min="8" max="8" width="40.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -694,7 +684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -714,11 +704,11 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G2" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -739,11 +729,11 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -760,12 +750,14 @@
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="H4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -785,10 +777,12 @@
       <c r="F5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -805,14 +799,14 @@
       <c r="F6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
@@ -825,14 +819,14 @@
         <v>10</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -847,12 +841,14 @@
         <v>6</v>
       </c>
       <c r="F8"/>
-      <c r="G8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -868,14 +864,14 @@
         <v>16</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>41</v>
       </c>
@@ -891,14 +887,14 @@
         <v>80</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
@@ -914,12 +910,12 @@
         <v>160</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="16" t="s">
-        <v>49</v>
+      <c r="G11" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
@@ -935,14 +931,14 @@
         <v>8</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -957,14 +953,14 @@
         <v>16</v>
       </c>
       <c r="F13"/>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -978,14 +974,14 @@
         <v>2</v>
       </c>
       <c r="F14"/>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1000,14 +996,14 @@
         <v>37.5</v>
       </c>
       <c r="F15"/>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1022,14 +1018,14 @@
         <v>16</v>
       </c>
       <c r="F16"/>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1044,12 +1040,14 @@
         <v>32</v>
       </c>
       <c r="F17"/>
-      <c r="G17" s="16"/>
+      <c r="G17" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="H17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1063,14 +1061,14 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>48</v>
+      <c r="G18" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
@@ -1083,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H19" s="11" t="s">
@@ -1092,7 +1090,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
@@ -1101,14 +1099,16 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="17"/>
+      <c r="G20" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="H20" s="11" t="s">
         <v>39</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>32</v>
       </c>
@@ -1131,13 +1131,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>44</v>
@@ -1169,6 +1169,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8fe00917-3ef6-400d-a461-63d6f7630107" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BACB0EEC849E8341901631B3A49B2A35" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b2dcdaa88d3ea4f5364aa0dbaad7e0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8fe00917-3ef6-400d-a461-63d6f7630107" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2517181b70cffc4a1c5f5a0fbd39417" ns3:_="">
     <xsd:import namespace="8fe00917-3ef6-400d-a461-63d6f7630107"/>
@@ -1324,24 +1341,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBCC3AD-96C0-4BCC-A2C8-ABF537F00546}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8fe00917-3ef6-400d-a461-63d6f7630107" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC8B0877-320B-4343-8C77-9D4A5874F420}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8fe00917-3ef6-400d-a461-63d6f7630107"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF6F31C1-EF26-4ECF-AF13-A28727A404BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1357,28 +1381,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBCC3AD-96C0-4BCC-A2C8-ABF537F00546}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC8B0877-320B-4343-8C77-9D4A5874F420}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8fe00917-3ef6-400d-a461-63d6f7630107"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>